--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12" count="12">
   <x:si>
     <x:t>博主名称</x:t>
   </x:si>
@@ -440,16 +440,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>6430</x:v>
+        <x:v>18244</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>169</x:v>
+        <x:v>913</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>270</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>243</x:v>
+        <x:v>996</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -460,75 +460,35 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>13627</x:v>
+        <x:v>13628</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>6026</x:v>
+        <x:v>6025</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
         <x:v>330</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>5342</x:v>
+        <x:v>5343</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>6435</x:v>
+        <x:v>5768</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>169</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>270</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>243</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="n">
-        <x:v>13627</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="n">
-        <x:v>6026</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="n">
-        <x:v>330</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="n">
-        <x:v>5342</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="n">
-        <x:v>5761</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="n">
-        <x:v>287</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="n">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="n">
         <x:v>153</x:v>
       </x:c>
     </x:row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12" count="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8" count="8">
   <x:si>
     <x:t>博主名称</x:t>
   </x:si>
@@ -38,18 +38,6 @@
   </x:si>
   <x:si>
     <x:t>7198123497707572540</x:t>
-  </x:si>
-  <x:si>
-    <x:t>外科教授李惠东</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7185840805108518205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>草原梯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7186221195899997479</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -440,56 +428,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>18244</x:v>
+        <x:v>18699</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>913</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>996</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>13628</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>6025</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="n">
-        <x:v>330</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="n">
-        <x:v>5343</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="n">
-        <x:v>5768</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="n">
-        <x:v>286</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="n">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="n">
-        <x:v>153</x:v>
+        <x:v>997</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
